--- a/kqdo.xlsx
+++ b/kqdo.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAI_LIEU\ET-E9\Program\20231\Cơ sở kỹ thuật đo lường\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D7915-59E8-4721-879B-876D5CF54E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C784B-2E1C-4B37-9669-23BA3C55289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A497CAEB-27A9-43C5-9551-13CB5A977A46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A497CAEB-27A9-43C5-9551-13CB5A977A46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chiếu sáng tự nhiên 11h30" sheetId="1" r:id="rId1"/>
-    <sheet name="Phòng kéo rèm 11h30" sheetId="2" r:id="rId2"/>
-    <sheet name="Đèn phòng" sheetId="3" r:id="rId3"/>
+    <sheet name="Đèn phòng v2" sheetId="4" r:id="rId1"/>
+    <sheet name="Phòng tối v2" sheetId="5" r:id="rId2"/>
+    <sheet name="Chiếu sáng tự nhiên 11h30" sheetId="1" r:id="rId3"/>
+    <sheet name="Phòng kéo rèm 11h30" sheetId="2" r:id="rId4"/>
+    <sheet name="Đèn phòng" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +39,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="30">
+  <si>
+    <t>104.84 lux</t>
+  </si>
+  <si>
+    <t>103.92 lux</t>
+  </si>
+  <si>
+    <t>102.41 lux</t>
+  </si>
+  <si>
+    <t>103.31 lux</t>
+  </si>
+  <si>
+    <t>103.01 lux</t>
+  </si>
+  <si>
+    <t>103.62 lux</t>
+  </si>
+  <si>
+    <t>104.53 lux</t>
+  </si>
+  <si>
+    <t>101.81 lux</t>
+  </si>
+  <si>
+    <t>102.71 lux</t>
+  </si>
+  <si>
+    <t>104.23 lux</t>
+  </si>
+  <si>
+    <t>102.11 lux</t>
+  </si>
+  <si>
+    <t>101.52 lux</t>
+  </si>
+  <si>
+    <t>106.72 lux</t>
+  </si>
+  <si>
+    <t>27.27 lux</t>
+  </si>
+  <si>
+    <t>26.73 lux</t>
+  </si>
+  <si>
+    <t>27.04 lux</t>
+  </si>
+  <si>
+    <t>27.50 lux</t>
+  </si>
+  <si>
+    <t>26.81 lux</t>
+  </si>
+  <si>
+    <t>27.58 lux</t>
+  </si>
+  <si>
+    <t>26.96 lux</t>
+  </si>
+  <si>
+    <t>26.88 lux</t>
+  </si>
+  <si>
+    <t>27.11 lux</t>
+  </si>
+  <si>
+    <t>26.66 lux</t>
+  </si>
+  <si>
+    <t>26.50 lux</t>
+  </si>
+  <si>
+    <t>27.19 lux</t>
+  </si>
+  <si>
+    <t>26.43 lux</t>
+  </si>
+  <si>
+    <t>26.35 lux</t>
+  </si>
+  <si>
+    <t>27.34 lux</t>
+  </si>
+  <si>
+    <t>27.42 lux</t>
+  </si>
+  <si>
+    <t>26.58 lux</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +148,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,12 +180,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,330 +502,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0E2D2-EADE-4B73-AC0F-A762D09D32C6}">
-  <dimension ref="A1:E95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429B1913-EA2E-4F2D-BFEB-5398DFD95252}">
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:A95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>1343.58</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>1353.06</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>1343.58</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>1353.06</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>1353.06</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>1343.58</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>1362.67</v>
+      <c r="A7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>1362.67</v>
+      <c r="A8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>1353.06</v>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>1353.06</v>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>1343.58</v>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>1362.67</v>
+      <c r="A12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>1362.67</v>
+      <c r="A13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>1353.06</v>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>1353.06</v>
+      <c r="A15" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>1362.67</v>
-      </c>
-      <c r="E17" s="2">
-        <f>AVERAGE(A1:A30)</f>
-        <v>1353.4150000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>1343.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>1343.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>1343.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>1362.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>1343.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>1362.67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>1362.67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>1362.67</v>
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1">
-        <v>1353.06</v>
+      <c r="A64" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1">
-        <v>1343.58</v>
+      <c r="A65" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1">
-        <v>1353.06</v>
+      <c r="A66" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1">
-        <v>1343.58</v>
+      <c r="A67" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1">
-        <v>1353.06</v>
+      <c r="A68" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1">
-        <v>1353.06</v>
+      <c r="A69" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1">
-        <v>1343.58</v>
+      <c r="A70" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1">
-        <v>1362.67</v>
+      <c r="A71" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1">
-        <v>1362.67</v>
+      <c r="A72" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1">
-        <v>1353.06</v>
+      <c r="A73" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1">
-        <v>1353.06</v>
+      <c r="A74" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1">
-        <v>1343.58</v>
+      <c r="A75" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1">
-        <v>1362.67</v>
+      <c r="A76" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="1">
-        <v>1362.67</v>
+      <c r="A77" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1">
-        <v>1353.06</v>
+      <c r="A78" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1">
-        <v>1353.06</v>
+      <c r="A79" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1">
-        <v>1353.06</v>
+      <c r="A80" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1">
-        <v>1362.67</v>
+      <c r="A81" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1">
-        <v>1343.58</v>
+      <c r="A82" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1">
-        <v>1343.58</v>
+      <c r="A83" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1">
-        <v>1343.58</v>
+      <c r="A84" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1">
-        <v>1353.06</v>
+      <c r="A85" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1">
-        <v>1362.67</v>
+      <c r="A86" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1">
-        <v>1343.58</v>
+      <c r="A87" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1">
-        <v>1353.06</v>
+      <c r="A88" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1">
-        <v>1362.67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1">
-        <v>1362.67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1">
-        <v>1353.06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1">
-        <v>1362.67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1">
-        <v>1353.06</v>
+      <c r="A89" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -724,6 +965,800 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC3E688-4D51-4561-B173-429497571357}">
+  <dimension ref="A1:A90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0E2D2-EADE-4B73-AC0F-A762D09D32C6}">
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>1362.67</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(A1:A30)</f>
+        <v>1353.4150000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1">
+        <v>1343.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1">
+        <v>1362.67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1">
+        <v>1353.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCB74F-4DA0-4267-A1B0-A5BA2A8FF46E}">
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -732,9 +1767,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1">
@@ -896,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E93532F-5C12-44F4-B1F3-DCD23161C3CA}">
   <dimension ref="A1:A96"/>
   <sheetViews>
